--- a/data/SSD_Option.xlsx
+++ b/data/SSD_Option.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse Work PC\Documents\Rutgers\Adminstrative Documents\Job Market\Academic Website\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jesse Work PC\Documents\Rutgers\Academic_Documents\Research Projects\Mizrach - Corporate Bankruptcy\Data\Options\Portfolios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41CDD85C-1E77-4A2A-9BB2-36E703A86A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7CACAAB-B7BE-4CE3-935D-9A740540E3B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
-    <t>date</t>
+    <t>Date</t>
   </si>
   <si>
     <t>SSD</t>
@@ -431,10 +431,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B295"/>
+  <dimension ref="A1:B306"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -454,18 +454,24 @@
       <c r="A2" s="2">
         <v>35095</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" s="2">
         <v>35124</v>
       </c>
+      <c r="B3">
+        <v>1.577725333271374E-2</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" s="2">
         <v>35153</v>
       </c>
       <c r="B4">
-        <v>4.2604322165956908E-2</v>
+        <v>8.2481528088486689E-2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
@@ -473,7 +479,7 @@
         <v>35185</v>
       </c>
       <c r="B5">
-        <v>-0.28082172098430741</v>
+        <v>-1.418025679647383E-2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
@@ -481,7 +487,7 @@
         <v>35216</v>
       </c>
       <c r="B6">
-        <v>9.3516406923402351E-4</v>
+        <v>4.1613763187516847E-2</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
@@ -489,7 +495,7 @@
         <v>35244</v>
       </c>
       <c r="B7">
-        <v>-1.59450750994039E-3</v>
+        <v>-6.4964151417798571E-2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
@@ -497,7 +503,7 @@
         <v>35277</v>
       </c>
       <c r="B8">
-        <v>0.13191236342367679</v>
+        <v>-1.9776271451404089E-2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
@@ -505,7 +511,7 @@
         <v>35307</v>
       </c>
       <c r="B9">
-        <v>0.2155671351157489</v>
+        <v>1.328366072111679E-2</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
@@ -513,7 +519,7 @@
         <v>35338</v>
       </c>
       <c r="B10">
-        <v>-0.1561024358710367</v>
+        <v>-0.12649741389508329</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
@@ -521,7 +527,7 @@
         <v>35369</v>
       </c>
       <c r="B11">
-        <v>-0.1122424480168575</v>
+        <v>-5.366598190506295E-2</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
@@ -529,7 +535,7 @@
         <v>35398</v>
       </c>
       <c r="B12">
-        <v>-2.6457267323094062E-2</v>
+        <v>5.1585589338010107E-2</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
@@ -537,7 +543,7 @@
         <v>35430</v>
       </c>
       <c r="B13">
-        <v>-0.1516842114074248</v>
+        <v>5.2894121105076207E-2</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
@@ -545,7 +551,7 @@
         <v>35461</v>
       </c>
       <c r="B14">
-        <v>-1.4526495807013651</v>
+        <v>-7.3775106782054622E-2</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
@@ -553,7 +559,7 @@
         <v>35489</v>
       </c>
       <c r="B15">
-        <v>4.8380230749319637E-2</v>
+        <v>1.4048778929143029E-2</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
@@ -561,7 +567,7 @@
         <v>35520</v>
       </c>
       <c r="B16">
-        <v>-0.1455773976673751</v>
+        <v>2.731976134056013E-2</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
@@ -569,7 +575,7 @@
         <v>35550</v>
       </c>
       <c r="B17">
-        <v>0.41867537261621762</v>
+        <v>0.13436109471109181</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
@@ -577,7 +583,7 @@
         <v>35580</v>
       </c>
       <c r="B18">
-        <v>-0.13117836986736561</v>
+        <v>-2.1121218705309312E-2</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
@@ -585,7 +591,7 @@
         <v>35611</v>
       </c>
       <c r="B19">
-        <v>-8.5435753512119725E-2</v>
+        <v>1.373006621260826E-3</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
@@ -593,7 +599,7 @@
         <v>35642</v>
       </c>
       <c r="B20">
-        <v>-0.34196330973092881</v>
+        <v>5.9076821290495102E-2</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
@@ -601,7 +607,7 @@
         <v>35671</v>
       </c>
       <c r="B21">
-        <v>7.3135602973520536E-2</v>
+        <v>8.4131955288189661E-2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
@@ -609,7 +615,7 @@
         <v>35703</v>
       </c>
       <c r="B22">
-        <v>0.2240857871627569</v>
+        <v>7.526603076181404E-2</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
@@ -617,7 +623,7 @@
         <v>35734</v>
       </c>
       <c r="B23">
-        <v>-8.3469979026520758E-2</v>
+        <v>-5.8948986346918669E-2</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
@@ -625,7 +631,7 @@
         <v>35762</v>
       </c>
       <c r="B24">
-        <v>2.8767986361674439E-2</v>
+        <v>-4.0538907693639117E-2</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
@@ -633,7 +639,7 @@
         <v>35795</v>
       </c>
       <c r="B25">
-        <v>7.9135073483990848E-2</v>
+        <v>3.0634453238580051E-2</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
@@ -641,7 +647,7 @@
         <v>35825</v>
       </c>
       <c r="B26">
-        <v>0.57923126338369135</v>
+        <v>0.30411931579130053</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
@@ -649,7 +655,7 @@
         <v>35853</v>
       </c>
       <c r="B27">
-        <v>-2.812468866976953E-2</v>
+        <v>3.803793882204215E-2</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
@@ -657,7 +663,7 @@
         <v>35885</v>
       </c>
       <c r="B28">
-        <v>-5.4241560345404213E-2</v>
+        <v>1.619505526720981E-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
@@ -665,7 +671,7 @@
         <v>35915</v>
       </c>
       <c r="B29">
-        <v>7.0069536798028326E-2</v>
+        <v>0.10151518932115509</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
@@ -673,7 +679,7 @@
         <v>35944</v>
       </c>
       <c r="B30">
-        <v>4.568032755024834E-2</v>
+        <v>-6.016739033127666E-2</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
@@ -681,7 +687,7 @@
         <v>35976</v>
       </c>
       <c r="B31">
-        <v>-0.12899485978724981</v>
+        <v>6.2831900387086428E-2</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
@@ -689,7 +695,7 @@
         <v>36007</v>
       </c>
       <c r="B32">
-        <v>5.6320355211928991E-2</v>
+        <v>-1.0850457737900819E-2</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
@@ -697,7 +703,7 @@
         <v>36038</v>
       </c>
       <c r="B33">
-        <v>-7.9454525849553426E-2</v>
+        <v>-5.4037527938365471E-2</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
@@ -705,7 +711,7 @@
         <v>36068</v>
       </c>
       <c r="B34">
-        <v>0.15033062076862519</v>
+        <v>0.26912845049968698</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
@@ -713,7 +719,7 @@
         <v>36098</v>
       </c>
       <c r="B35">
-        <v>3.7592511714208521E-2</v>
+        <v>9.0552547525494853E-2</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
@@ -721,7 +727,7 @@
         <v>36129</v>
       </c>
       <c r="B36">
-        <v>-6.5640725550572238E-2</v>
+        <v>-9.2683046432300575E-3</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
@@ -729,7 +735,7 @@
         <v>36160</v>
       </c>
       <c r="B37">
-        <v>-0.1240447588126075</v>
+        <v>-0.14777998804506731</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
@@ -737,7 +743,7 @@
         <v>36189</v>
       </c>
       <c r="B38">
-        <v>0.70823299828804442</v>
+        <v>0.48908085935269852</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
@@ -745,7 +751,7 @@
         <v>36217</v>
       </c>
       <c r="B39">
-        <v>3.5481971556806817E-2</v>
+        <v>2.1797250847481381E-2</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
@@ -753,7 +759,7 @@
         <v>36250</v>
       </c>
       <c r="B40">
-        <v>-9.9923937374294516E-2</v>
+        <v>-5.2724010747995848E-2</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
@@ -761,7 +767,7 @@
         <v>36280</v>
       </c>
       <c r="B41">
-        <v>0.1009756157985348</v>
+        <v>0.16203078048707331</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
@@ -769,7 +775,7 @@
         <v>36341</v>
       </c>
       <c r="B42">
-        <v>5.3747597690692137E-2</v>
+        <v>8.8124104227462335E-2</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
@@ -777,7 +783,7 @@
         <v>36371</v>
       </c>
       <c r="B43">
-        <v>-2.6521050368123911E-2</v>
+        <v>-3.5642868498208941E-3</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
@@ -785,7 +791,7 @@
         <v>36403</v>
       </c>
       <c r="B44">
-        <v>-5.8021492056210919E-2</v>
+        <v>-6.6156397117521193E-2</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
@@ -793,7 +799,7 @@
         <v>36433</v>
       </c>
       <c r="B45">
-        <v>-5.1640000738604822E-2</v>
+        <v>-7.7080438430197906E-3</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
@@ -801,7 +807,7 @@
         <v>36462</v>
       </c>
       <c r="B46">
-        <v>4.7893211742880047E-2</v>
+        <v>1.277209411626387E-2</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
@@ -809,7 +815,7 @@
         <v>36494</v>
       </c>
       <c r="B47">
-        <v>1.957742660739662</v>
+        <v>0.102004586258565</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
@@ -817,7 +823,7 @@
         <v>36525</v>
       </c>
       <c r="B48">
-        <v>-0.1174581310487012</v>
+        <v>-5.1391535345450767E-2</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
@@ -825,7 +831,7 @@
         <v>36556</v>
       </c>
       <c r="B49">
-        <v>0.6286763624482643</v>
+        <v>0.66692991607324625</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
@@ -833,7 +839,7 @@
         <v>36585</v>
       </c>
       <c r="B50">
-        <v>-0.1165853329353277</v>
+        <v>-3.9703206049486447E-2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
@@ -841,7 +847,7 @@
         <v>36616</v>
       </c>
       <c r="B51">
-        <v>-0.2462881088634149</v>
+        <v>-0.2293007716472594</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
@@ -849,7 +855,7 @@
         <v>36644</v>
       </c>
       <c r="B52">
-        <v>-0.1297967230822121</v>
+        <v>3.1209389833522709E-3</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
@@ -857,7 +863,7 @@
         <v>36677</v>
       </c>
       <c r="B53">
-        <v>-0.1095107920176516</v>
+        <v>-5.2042427667975899E-2</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
@@ -865,7 +871,7 @@
         <v>36707</v>
       </c>
       <c r="B54">
-        <v>0.40016538111586408</v>
+        <v>0.17101570100283869</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
@@ -873,7 +879,7 @@
         <v>36738</v>
       </c>
       <c r="B55">
-        <v>0.16587412486274669</v>
+        <v>0.13438312404829009</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
@@ -881,7 +887,7 @@
         <v>36769</v>
       </c>
       <c r="B56">
-        <v>9.3725318473006733E-2</v>
+        <v>0.14429912873439499</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
@@ -889,7 +895,7 @@
         <v>36798</v>
       </c>
       <c r="B57">
-        <v>-3.3371145124214192E-2</v>
+        <v>-7.3899623885682136E-2</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
@@ -897,7 +903,7 @@
         <v>36830</v>
       </c>
       <c r="B58">
-        <v>-0.40404895114706951</v>
+        <v>-0.17172405758233769</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.35">
@@ -905,7 +911,7 @@
         <v>36860</v>
       </c>
       <c r="B59">
-        <v>-0.16592361118602561</v>
+        <v>-0.14013348989609109</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
@@ -913,7 +919,7 @@
         <v>36889</v>
       </c>
       <c r="B60">
-        <v>9.0021401067926096E-2</v>
+        <v>-6.8732605850901463E-2</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
@@ -921,7 +927,7 @@
         <v>36922</v>
       </c>
       <c r="B61">
-        <v>0.6228711893616854</v>
+        <v>1.051615103518855</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.35">
@@ -929,7 +935,7 @@
         <v>36950</v>
       </c>
       <c r="B62">
-        <v>-0.16643428541931299</v>
+        <v>-0.12602034705733381</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
@@ -937,7 +943,7 @@
         <v>36980</v>
       </c>
       <c r="B63">
-        <v>-5.0879832837244447E-2</v>
+        <v>-7.3561841859699439E-2</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
@@ -945,7 +951,7 @@
         <v>37011</v>
       </c>
       <c r="B64">
-        <v>-6.3016835053684106E-2</v>
+        <v>4.0001984174407201E-2</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
@@ -953,7 +959,7 @@
         <v>37042</v>
       </c>
       <c r="B65">
-        <v>-0.15424061619232499</v>
+        <v>-2.78209699530481E-2</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.35">
@@ -961,7 +967,7 @@
         <v>37071</v>
       </c>
       <c r="B66">
-        <v>-9.8705353905942206E-2</v>
+        <v>0.12698042076911489</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
@@ -969,7 +975,7 @@
         <v>37103</v>
       </c>
       <c r="B67">
-        <v>-0.30960822447580338</v>
+        <v>-0.18606639410542369</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
@@ -977,7 +983,7 @@
         <v>37134</v>
       </c>
       <c r="B68">
-        <v>-3.3067146006152459E-2</v>
+        <v>-4.9400444456748432E-2</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
@@ -985,7 +991,7 @@
         <v>37162</v>
       </c>
       <c r="B69">
-        <v>-9.1396930098715301E-2</v>
+        <v>-1.437137393560506E-2</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
@@ -993,7 +999,7 @@
         <v>37195</v>
       </c>
       <c r="B70">
-        <v>-0.13452776373018069</v>
+        <v>-0.1554203319983595</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
@@ -1001,7 +1007,7 @@
         <v>37225</v>
       </c>
       <c r="B71">
-        <v>0.38606478324909022</v>
+        <v>0.1490810911775084</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
@@ -1009,7 +1015,7 @@
         <v>37256</v>
       </c>
       <c r="B72">
-        <v>-4.7998470573916173E-2</v>
+        <v>3.090564063452796E-2</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.35">
@@ -1017,7 +1023,7 @@
         <v>37287</v>
       </c>
       <c r="B73">
-        <v>0.14751880608131721</v>
+        <v>-0.11222431528814659</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
@@ -1025,7 +1031,7 @@
         <v>37315</v>
       </c>
       <c r="B74">
-        <v>-1.204158533458298E-2</v>
+        <v>-4.3204494801684812E-2</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
@@ -1033,7 +1039,7 @@
         <v>37376</v>
       </c>
       <c r="B75">
-        <v>-6.1571414095598631E-2</v>
+        <v>-4.2233248168277372E-2</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
@@ -1041,7 +1047,7 @@
         <v>37407</v>
       </c>
       <c r="B76">
-        <v>7.3426722121007204E-2</v>
+        <v>6.5376304977793204E-2</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
@@ -1049,7 +1055,7 @@
         <v>37435</v>
       </c>
       <c r="B77">
-        <v>-6.8480191759305309E-3</v>
+        <v>-4.1425675345729003E-2</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
@@ -1057,7 +1063,7 @@
         <v>37468</v>
       </c>
       <c r="B78">
-        <v>-1.7299692925173679E-2</v>
+        <v>7.7532830149868753E-2</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
@@ -1065,7 +1071,7 @@
         <v>37498</v>
       </c>
       <c r="B79">
-        <v>5.1709391800544798E-2</v>
+        <v>2.3759370814535601E-2</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
@@ -1073,7 +1079,7 @@
         <v>37529</v>
       </c>
       <c r="B80">
-        <v>0.1290862601905666</v>
+        <v>3.338718448642175E-2</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
@@ -1081,7 +1087,7 @@
         <v>37560</v>
       </c>
       <c r="B81">
-        <v>4.5773226365088848E-2</v>
+        <v>0.32542136289329232</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
@@ -1089,7 +1095,7 @@
         <v>37589</v>
       </c>
       <c r="B82">
-        <v>8.6760010475989857E-2</v>
+        <v>7.2996759177594295E-2</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
@@ -1097,7 +1103,7 @@
         <v>37621</v>
       </c>
       <c r="B83">
-        <v>7.2722816411372182E-2</v>
+        <v>-1.1334491707187229E-2</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
@@ -1105,7 +1111,7 @@
         <v>37652</v>
       </c>
       <c r="B84">
-        <v>-0.24531798753119199</v>
+        <v>-8.7541956968429813E-2</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
@@ -1113,7 +1119,7 @@
         <v>37680</v>
       </c>
       <c r="B85">
-        <v>-0.24989723311602419</v>
+        <v>-0.1163269501528448</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
@@ -1121,7 +1127,7 @@
         <v>37711</v>
       </c>
       <c r="B86">
-        <v>1.124683026568868E-2</v>
+        <v>-2.4378558786293081E-2</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
@@ -1129,7 +1135,7 @@
         <v>37741</v>
       </c>
       <c r="B87">
-        <v>0.18517645943907199</v>
+        <v>0.13344732586340091</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
@@ -1137,7 +1143,7 @@
         <v>37771</v>
       </c>
       <c r="B88">
-        <v>0.1204497660127011</v>
+        <v>0.10234600157769259</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
@@ -1145,7 +1151,7 @@
         <v>37802</v>
       </c>
       <c r="B89">
-        <v>-2.7895684817330131E-2</v>
+        <v>5.1477071221066373E-2</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
@@ -1153,7 +1159,7 @@
         <v>37833</v>
       </c>
       <c r="B90">
-        <v>2.0141988896328861E-2</v>
+        <v>4.6244002734750368E-3</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
@@ -1161,7 +1167,7 @@
         <v>37862</v>
       </c>
       <c r="B91">
-        <v>7.9072640124186938E-2</v>
+        <v>0.1191014792046171</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
@@ -1169,7 +1175,7 @@
         <v>37894</v>
       </c>
       <c r="B92">
-        <v>8.8961320199932442E-3</v>
+        <v>2.6823818044816199E-2</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
@@ -1177,7 +1183,7 @@
         <v>37925</v>
       </c>
       <c r="B93">
-        <v>-4.6923997666289158E-2</v>
+        <v>-4.6179846761140307E-2</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
@@ -1185,7 +1191,7 @@
         <v>37953</v>
       </c>
       <c r="B94">
-        <v>-5.3665251055390613E-2</v>
+        <v>-4.3100406853107627E-2</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
@@ -1193,7 +1199,7 @@
         <v>37986</v>
       </c>
       <c r="B95">
-        <v>-2.9466665603765069E-2</v>
+        <v>3.5096671467979117E-2</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
@@ -1201,7 +1207,7 @@
         <v>38016</v>
       </c>
       <c r="B96">
-        <v>-0.1359809492543648</v>
+        <v>1.2800900391956801E-2</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
@@ -1209,7 +1215,7 @@
         <v>38044</v>
       </c>
       <c r="B97">
-        <v>-2.8830466830569381E-3</v>
+        <v>-1.727644915620119E-2</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
@@ -1217,7 +1223,7 @@
         <v>38077</v>
       </c>
       <c r="B98">
-        <v>0.1187365866170972</v>
+        <v>5.0358866350174912E-2</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
@@ -1225,7 +1231,7 @@
         <v>38107</v>
       </c>
       <c r="B99">
-        <v>-8.9270788765079101E-2</v>
+        <v>-7.6283486522083777E-2</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
@@ -1233,7 +1239,7 @@
         <v>38168</v>
       </c>
       <c r="B100">
-        <v>0.1011274968073005</v>
+        <v>9.7627344301136065E-2</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
@@ -1241,7 +1247,7 @@
         <v>38198</v>
       </c>
       <c r="B101">
-        <v>-4.3470856396578987E-2</v>
+        <v>1.4383253451705821E-2</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
@@ -1249,7 +1255,7 @@
         <v>38230</v>
       </c>
       <c r="B102">
-        <v>-3.312029513555137E-3</v>
+        <v>-1.0432392960333849E-2</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
@@ -1257,7 +1263,7 @@
         <v>38260</v>
       </c>
       <c r="B103">
-        <v>9.8471746042408909E-2</v>
+        <v>8.2598278578125045E-2</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.35">
@@ -1265,7 +1271,7 @@
         <v>38289</v>
       </c>
       <c r="B104">
-        <v>1.9707134063567E-2</v>
+        <v>4.341240306426658E-3</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.35">
@@ -1273,7 +1279,7 @@
         <v>38321</v>
       </c>
       <c r="B105">
-        <v>-7.7642345486903547E-2</v>
+        <v>-7.1062683112561503E-2</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.35">
@@ -1281,7 +1287,7 @@
         <v>38352</v>
       </c>
       <c r="B106">
-        <v>7.3382654957846183E-3</v>
+        <v>-3.5709181945340313E-2</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.35">
@@ -1289,7 +1295,7 @@
         <v>38383</v>
       </c>
       <c r="B107">
-        <v>-6.7420730265003309E-2</v>
+        <v>-0.12215291316960571</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.35">
@@ -1297,7 +1303,7 @@
         <v>38411</v>
       </c>
       <c r="B108">
-        <v>-2.366269975054601E-2</v>
+        <v>-5.6019713480354449E-3</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.35">
@@ -1305,7 +1311,7 @@
         <v>38442</v>
       </c>
       <c r="B109">
-        <v>1.269760204074216E-2</v>
+        <v>2.7743511406958962E-2</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.35">
@@ -1313,7 +1319,7 @@
         <v>38471</v>
       </c>
       <c r="B110">
-        <v>2.1235914528801251E-2</v>
+        <v>3.8997905577767829E-3</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.35">
@@ -1321,7 +1327,7 @@
         <v>38503</v>
       </c>
       <c r="B111">
-        <v>3.2821477255424857E-2</v>
+        <v>4.8013071351588277E-2</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.35">
@@ -1329,7 +1335,7 @@
         <v>38533</v>
       </c>
       <c r="B112">
-        <v>4.0541414331067123E-2</v>
+        <v>7.7096820196457347E-2</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.35">
@@ -1337,7 +1343,7 @@
         <v>38562</v>
       </c>
       <c r="B113">
-        <v>-4.9207303990600533E-2</v>
+        <v>-5.1016259284617449E-2</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.35">
@@ -1345,7 +1351,7 @@
         <v>38595</v>
       </c>
       <c r="B114">
-        <v>-2.0088063096095381E-2</v>
+        <v>1.352624677756333E-2</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.35">
@@ -1353,7 +1359,7 @@
         <v>38625</v>
       </c>
       <c r="B115">
-        <v>4.8717562961175291E-2</v>
+        <v>4.26675082793668E-2</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.35">
@@ -1361,7 +1367,7 @@
         <v>38656</v>
       </c>
       <c r="B116">
-        <v>-6.860433966014079E-2</v>
+        <v>-8.3760573992608403E-2</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.35">
@@ -1369,7 +1375,7 @@
         <v>38686</v>
       </c>
       <c r="B117">
-        <v>-5.6995769202671243E-2</v>
+        <v>-3.7391919664926367E-2</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.35">
@@ -1377,7 +1383,7 @@
         <v>38716</v>
       </c>
       <c r="B118">
-        <v>2.5461759763639132E-2</v>
+        <v>2.224721420650742E-2</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.35">
@@ -1385,7 +1391,7 @@
         <v>38748</v>
       </c>
       <c r="B119">
-        <v>0.12703762321705281</v>
+        <v>0.2171561390790612</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.35">
@@ -1393,7 +1399,7 @@
         <v>38776</v>
       </c>
       <c r="B120">
-        <v>1.9573859088163718E-2</v>
+        <v>1.2668195009640301E-2</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.35">
@@ -1401,7 +1407,7 @@
         <v>38807</v>
       </c>
       <c r="B121">
-        <v>-8.2030036911439688E-2</v>
+        <v>-5.0518082863204902E-2</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.35">
@@ -1409,7 +1415,7 @@
         <v>38835</v>
       </c>
       <c r="B122">
-        <v>3.5139169104507102E-2</v>
+        <v>1.162500257345437E-2</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.35">
@@ -1417,7 +1423,7 @@
         <v>38868</v>
       </c>
       <c r="B123">
-        <v>-5.7174711630735009E-3</v>
+        <v>-1.5018731234621399E-2</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.35">
@@ -1425,7 +1431,7 @@
         <v>38898</v>
       </c>
       <c r="B124">
-        <v>-2.7786300992156579E-2</v>
+        <v>-1.5840466605184039E-2</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.35">
@@ -1433,7 +1439,7 @@
         <v>38929</v>
       </c>
       <c r="B125">
-        <v>-4.1324130141612958E-2</v>
+        <v>-2.8143807839266659E-2</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.35">
@@ -1441,7 +1447,7 @@
         <v>38960</v>
       </c>
       <c r="B126">
-        <v>3.3391140588140522E-2</v>
+        <v>5.0859417540397758E-2</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.35">
@@ -1449,7 +1455,7 @@
         <v>38989</v>
       </c>
       <c r="B127">
-        <v>-5.8338556911844183E-2</v>
+        <v>-5.7401812845107807E-2</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.35">
@@ -1457,7 +1463,7 @@
         <v>39021</v>
       </c>
       <c r="B128">
-        <v>3.1105550690885789E-2</v>
+        <v>5.1770958451357728E-2</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.35">
@@ -1465,7 +1471,7 @@
         <v>39051</v>
       </c>
       <c r="B129">
-        <v>2.412001834013755E-2</v>
+        <v>2.587258507590677E-2</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.35">
@@ -1473,7 +1479,7 @@
         <v>39080</v>
       </c>
       <c r="B130">
-        <v>6.0375535499223823E-2</v>
+        <v>7.273013503758205E-2</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.35">
@@ -1481,7 +1487,7 @@
         <v>39113</v>
       </c>
       <c r="B131">
-        <v>-8.7826304163834745E-2</v>
+        <v>-9.803007581103157E-2</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.35">
@@ -1489,7 +1495,7 @@
         <v>39141</v>
       </c>
       <c r="B132">
-        <v>1.4515050644568079E-2</v>
+        <v>2.8383241474323851E-2</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.35">
@@ -1497,7 +1503,7 @@
         <v>39171</v>
       </c>
       <c r="B133">
-        <v>-3.992180555958999E-2</v>
+        <v>-4.1038841723811462E-2</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.35">
@@ -1505,7 +1511,7 @@
         <v>39202</v>
       </c>
       <c r="B134">
-        <v>-2.0697975803707361E-2</v>
+        <v>-3.1068104286144201E-2</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.35">
@@ -1513,7 +1519,7 @@
         <v>39233</v>
       </c>
       <c r="B135">
-        <v>-5.0989442599817518E-2</v>
+        <v>-4.8754487909922407E-2</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.35">
@@ -1521,7 +1527,7 @@
         <v>39262</v>
       </c>
       <c r="B136">
-        <v>-1.1282291731579909E-2</v>
+        <v>-1.4246753632029929E-2</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.35">
@@ -1529,7 +1535,7 @@
         <v>39294</v>
       </c>
       <c r="B137">
-        <v>5.0215130005500902E-2</v>
+        <v>1.645983337388825E-2</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.35">
@@ -1537,7 +1543,7 @@
         <v>39325</v>
       </c>
       <c r="B138">
-        <v>-9.3179213292856417E-2</v>
+        <v>-6.6285220120944399E-2</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.35">
@@ -1545,7 +1551,7 @@
         <v>39353</v>
       </c>
       <c r="B139">
-        <v>2.9770877533243478E-2</v>
+        <v>3.824740976913274E-2</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.35">
@@ -1553,7 +1559,7 @@
         <v>39386</v>
       </c>
       <c r="B140">
-        <v>5.1045067145344999E-2</v>
+        <v>4.2837747727343313E-2</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.35">
@@ -1561,7 +1567,7 @@
         <v>39416</v>
       </c>
       <c r="B141">
-        <v>-1.5862928721007339E-2</v>
+        <v>-2.782092442200643E-2</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.35">
@@ -1569,7 +1575,7 @@
         <v>39447</v>
       </c>
       <c r="B142">
-        <v>-4.7376502012807242E-2</v>
+        <v>-2.3400536976981759E-2</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.35">
@@ -1577,7 +1583,7 @@
         <v>39478</v>
       </c>
       <c r="B143">
-        <v>8.1535643714861994E-2</v>
+        <v>7.492932869089286E-2</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.35">
@@ -1585,7 +1591,7 @@
         <v>39507</v>
       </c>
       <c r="B144">
-        <v>-1.1231568304952489E-2</v>
+        <v>-5.1339723600163038E-3</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.35">
@@ -1593,7 +1599,7 @@
         <v>39538</v>
       </c>
       <c r="B145">
-        <v>-1.285819048553195E-2</v>
+        <v>2.507529557134916E-3</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.35">
@@ -1601,7 +1607,7 @@
         <v>39568</v>
       </c>
       <c r="B146">
-        <v>-3.3614447031070548E-2</v>
+        <v>-4.5329937321991198E-2</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.35">
@@ -1609,7 +1615,7 @@
         <v>39598</v>
       </c>
       <c r="B147">
-        <v>3.6697610850824902E-3</v>
+        <v>5.2103198769405954E-3</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.35">
@@ -1617,7 +1623,7 @@
         <v>39629</v>
       </c>
       <c r="B148">
-        <v>3.0493633628956018E-3</v>
+        <v>2.260095466905862E-2</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.35">
@@ -1625,7 +1631,7 @@
         <v>39660</v>
       </c>
       <c r="B149">
-        <v>6.3190988784693994E-2</v>
+        <v>0.13244102015101319</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.35">
@@ -1633,7 +1639,7 @@
         <v>39689</v>
       </c>
       <c r="B150">
-        <v>-1.780577901376839E-2</v>
+        <v>6.723717021458131E-3</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.35">
@@ -1641,7 +1647,7 @@
         <v>39721</v>
       </c>
       <c r="B151">
-        <v>1.1355400050883091E-3</v>
+        <v>2.9616056353539089E-2</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.35">
@@ -1649,7 +1655,7 @@
         <v>39752</v>
       </c>
       <c r="B152">
-        <v>-8.3858010301581826E-2</v>
+        <v>-3.5666979807713023E-2</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.35">
@@ -1657,7 +1663,7 @@
         <v>39780</v>
       </c>
       <c r="B153">
-        <v>-1.437817658436494E-2</v>
+        <v>-1.462442192728987E-2</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.35">
@@ -1665,7 +1671,7 @@
         <v>39813</v>
       </c>
       <c r="B154">
-        <v>-4.1449817462389467E-2</v>
+        <v>-3.2491150068877192E-2</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.35">
@@ -1673,7 +1679,7 @@
         <v>39843</v>
       </c>
       <c r="B155">
-        <v>0.17297126832802601</v>
+        <v>6.6099086746349123E-2</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.35">
@@ -1681,7 +1687,7 @@
         <v>39871</v>
       </c>
       <c r="B156">
-        <v>-4.9654803370125573E-2</v>
+        <v>-5.2970738299588323E-2</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.35">
@@ -1689,7 +1695,7 @@
         <v>39903</v>
       </c>
       <c r="B157">
-        <v>-0.1413208183157485</v>
+        <v>-9.5181364281959502E-2</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.35">
@@ -1697,7 +1703,7 @@
         <v>39933</v>
       </c>
       <c r="B158">
-        <v>3.2750937685547273E-2</v>
+        <v>7.2728212159452466E-2</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.35">
@@ -1705,7 +1711,7 @@
         <v>39962</v>
       </c>
       <c r="B159">
-        <v>-8.8574189646871138E-3</v>
+        <v>-2.381909273716341E-2</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.35">
@@ -1713,7 +1719,7 @@
         <v>39994</v>
       </c>
       <c r="B160">
-        <v>9.0186610992647978E-2</v>
+        <v>9.4586376719127396E-2</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.35">
@@ -1721,7 +1727,7 @@
         <v>40025</v>
       </c>
       <c r="B161">
-        <v>0.14357463859317179</v>
+        <v>0.13177948929647959</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.35">
@@ -1729,7 +1735,7 @@
         <v>40056</v>
       </c>
       <c r="B162">
-        <v>9.7071632403367802E-2</v>
+        <v>0.1227804208545742</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.35">
@@ -1737,7 +1743,7 @@
         <v>40086</v>
       </c>
       <c r="B163">
-        <v>8.1845582997067151E-2</v>
+        <v>6.3183601480422541E-2</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.35">
@@ -1745,7 +1751,7 @@
         <v>40116</v>
       </c>
       <c r="B164">
-        <v>3.3249647368030412E-2</v>
+        <v>1.4709619526378529E-2</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.35">
@@ -1753,7 +1759,7 @@
         <v>40147</v>
       </c>
       <c r="B165">
-        <v>-0.1034015854862419</v>
+        <v>-6.9994718218146373E-2</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.35">
@@ -1761,7 +1767,7 @@
         <v>40178</v>
       </c>
       <c r="B166">
-        <v>6.2561253404391434E-2</v>
+        <v>6.9632700954267768E-2</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.35">
@@ -1769,7 +1775,7 @@
         <v>40207</v>
       </c>
       <c r="B167">
-        <v>0.1918053663992442</v>
+        <v>0.2462986817550627</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.35">
@@ -1777,7 +1783,7 @@
         <v>40235</v>
       </c>
       <c r="B168">
-        <v>-0.19295768490968521</v>
+        <v>-6.0538792363724003E-2</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.35">
@@ -1785,7 +1791,7 @@
         <v>40268</v>
       </c>
       <c r="B169">
-        <v>1.818702119688731E-2</v>
+        <v>1.1414940447542181E-2</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.35">
@@ -1793,7 +1799,7 @@
         <v>40298</v>
       </c>
       <c r="B170">
-        <v>4.0958389105630988E-2</v>
+        <v>5.3355182039083057E-2</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.35">
@@ -1801,7 +1807,7 @@
         <v>40359</v>
       </c>
       <c r="B171">
-        <v>0.31003760043817408</v>
+        <v>0.27234044086678322</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.35">
@@ -1809,7 +1815,7 @@
         <v>40389</v>
       </c>
       <c r="B172">
-        <v>-2.4528617233364029E-2</v>
+        <v>-2.08540129861009E-2</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.35">
@@ -1817,7 +1823,7 @@
         <v>40421</v>
       </c>
       <c r="B173">
-        <v>-5.8235497200815937E-2</v>
+        <v>-6.2271077178113178E-2</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.35">
@@ -1825,7 +1831,7 @@
         <v>40451</v>
       </c>
       <c r="B174">
-        <v>0.1497137278722539</v>
+        <v>6.8791532198040406E-2</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.35">
@@ -1833,7 +1839,7 @@
         <v>40480</v>
       </c>
       <c r="B175">
-        <v>3.3952063022364663E-2</v>
+        <v>1.635303627253051E-2</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.35">
@@ -1841,7 +1847,7 @@
         <v>40512</v>
       </c>
       <c r="B176">
-        <v>-7.0209129588109306E-2</v>
+        <v>-2.1110661731459899E-2</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.35">
@@ -1849,7 +1855,7 @@
         <v>40543</v>
       </c>
       <c r="B177">
-        <v>0.1144063927823956</v>
+        <v>0.1086418431371891</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.35">
@@ -1857,7 +1863,7 @@
         <v>40574</v>
       </c>
       <c r="B178">
-        <v>1.6745306589671771E-2</v>
+        <v>9.7929098104871992E-2</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.35">
@@ -1865,7 +1871,7 @@
         <v>40602</v>
       </c>
       <c r="B179">
-        <v>-3.413798987128458E-3</v>
+        <v>-6.1277781293451739E-3</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.35">
@@ -1873,7 +1879,7 @@
         <v>40633</v>
       </c>
       <c r="B180">
-        <v>0.25533371473454142</v>
+        <v>0.13414208153929599</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.35">
@@ -1881,7 +1887,7 @@
         <v>40662</v>
       </c>
       <c r="B181">
-        <v>-7.4133445379175086E-2</v>
+        <v>-0.1045756992792308</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.35">
@@ -1889,7 +1895,7 @@
         <v>40694</v>
       </c>
       <c r="B182">
-        <v>-8.6656514713677052E-3</v>
+        <v>-2.0067091140001009E-2</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.35">
@@ -1897,7 +1903,7 @@
         <v>40724</v>
       </c>
       <c r="B183">
-        <v>-4.8321401270500802E-2</v>
+        <v>-2.2295305734827409E-2</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.35">
@@ -1905,7 +1911,7 @@
         <v>40753</v>
       </c>
       <c r="B184">
-        <v>-4.1205114102579349E-2</v>
+        <v>-1.8820558449341249E-2</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.35">
@@ -1913,7 +1919,7 @@
         <v>40786</v>
       </c>
       <c r="B185">
-        <v>4.3989735427156833E-2</v>
+        <v>6.315756110070013E-2</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.35">
@@ -1921,7 +1927,7 @@
         <v>40816</v>
       </c>
       <c r="B186">
-        <v>-6.1750989777226102E-2</v>
+        <v>-7.6687204154445743E-2</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.35">
@@ -1929,7 +1935,7 @@
         <v>40847</v>
       </c>
       <c r="B187">
-        <v>4.6231380238179583E-2</v>
+        <v>-9.8788154853025056E-3</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.35">
@@ -1937,7 +1943,7 @@
         <v>40877</v>
       </c>
       <c r="B188">
-        <v>-2.3108361377697621E-2</v>
+        <v>-7.059710764744051E-2</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.35">
@@ -1945,7 +1951,7 @@
         <v>40907</v>
       </c>
       <c r="B189">
-        <v>4.1876147234952983E-2</v>
+        <v>3.08462227700818E-2</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.35">
@@ -1953,7 +1959,7 @@
         <v>40939</v>
       </c>
       <c r="B190">
-        <v>-6.3224084997485219E-2</v>
+        <v>0.23490930313700109</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.35">
@@ -1961,7 +1967,7 @@
         <v>40968</v>
       </c>
       <c r="B191">
-        <v>-4.9231352243215169E-2</v>
+        <v>-4.1800604732529147E-2</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.35">
@@ -1969,7 +1975,7 @@
         <v>40998</v>
       </c>
       <c r="B192">
-        <v>0.1072090843614843</v>
+        <v>7.9579232967850758E-2</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.35">
@@ -1977,7 +1983,7 @@
         <v>41029</v>
       </c>
       <c r="B193">
-        <v>6.6499754527611032E-2</v>
+        <v>6.3382644873289484E-2</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.35">
@@ -1985,7 +1991,7 @@
         <v>41060</v>
       </c>
       <c r="B194">
-        <v>-3.4594918810740477E-2</v>
+        <v>-1.572774751127173E-2</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.35">
@@ -1993,7 +1999,7 @@
         <v>41089</v>
       </c>
       <c r="B195">
-        <v>6.5234866043965514E-2</v>
+        <v>6.3701128642225352E-2</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.35">
@@ -2001,7 +2007,7 @@
         <v>41121</v>
       </c>
       <c r="B196">
-        <v>-0.1110032002400818</v>
+        <v>-0.1052368372787679</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.35">
@@ -2009,7 +2015,7 @@
         <v>41152</v>
       </c>
       <c r="B197">
-        <v>-4.0449166699705802E-2</v>
+        <v>-3.6046139708384439E-3</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.35">
@@ -2017,7 +2023,7 @@
         <v>41180</v>
       </c>
       <c r="B198">
-        <v>2.8079024660634239E-2</v>
+        <v>1.7422492293285581E-2</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.35">
@@ -2025,7 +2031,7 @@
         <v>41213</v>
       </c>
       <c r="B199">
-        <v>-5.1357317158134803E-2</v>
+        <v>-4.1626243730776523E-2</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.35">
@@ -2033,7 +2039,7 @@
         <v>41243</v>
       </c>
       <c r="B200">
-        <v>-1.5706588072697879E-2</v>
+        <v>-1.6887595139930399E-2</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.35">
@@ -2041,7 +2047,7 @@
         <v>41274</v>
       </c>
       <c r="B201">
-        <v>0.15868137485133249</v>
+        <v>0.12532588063149519</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.35">
@@ -2049,7 +2055,7 @@
         <v>41305</v>
       </c>
       <c r="B202">
-        <v>-0.24748508345141931</v>
+        <v>-0.26085908036585859</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.35">
@@ -2057,7 +2063,7 @@
         <v>41333</v>
       </c>
       <c r="B203">
-        <v>8.9814867727607162E-2</v>
+        <v>7.781702089599353E-2</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.35">
@@ -2065,7 +2071,7 @@
         <v>41394</v>
       </c>
       <c r="B204">
-        <v>4.415348449719303E-2</v>
+        <v>3.1149282050499671E-2</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.35">
@@ -2073,7 +2079,7 @@
         <v>41425</v>
       </c>
       <c r="B205">
-        <v>2.0829469231131551E-2</v>
+        <v>3.7987287583243552E-2</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.35">
@@ -2081,7 +2087,7 @@
         <v>41453</v>
       </c>
       <c r="B206">
-        <v>7.875895813827527E-5</v>
+        <v>1.8117233695173322E-2</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.35">
@@ -2089,7 +2095,7 @@
         <v>41486</v>
       </c>
       <c r="B207">
-        <v>-1.386972361360897E-2</v>
+        <v>-8.2511831965294546E-3</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.35">
@@ -2097,7 +2103,7 @@
         <v>41516</v>
       </c>
       <c r="B208">
-        <v>2.222084699755467E-2</v>
+        <v>1.692991001071888E-2</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.35">
@@ -2105,7 +2111,7 @@
         <v>41547</v>
       </c>
       <c r="B209">
-        <v>3.5922536239497087E-2</v>
+        <v>5.4739434222722018E-2</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.35">
@@ -2113,7 +2119,7 @@
         <v>41578</v>
       </c>
       <c r="B210">
-        <v>6.5448182533884722E-2</v>
+        <v>3.2529428050441442E-2</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.35">
@@ -2121,7 +2127,7 @@
         <v>41607</v>
       </c>
       <c r="B211">
-        <v>7.6140773712254847E-2</v>
+        <v>8.0636277908636533E-2</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.35">
@@ -2129,7 +2135,7 @@
         <v>41639</v>
       </c>
       <c r="B212">
-        <v>0.13481666674059059</v>
+        <v>0.1246508168728391</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.35">
@@ -2137,7 +2143,7 @@
         <v>41670</v>
       </c>
       <c r="B213">
-        <v>-7.4753843872666481E-2</v>
+        <v>-1.344011887045077E-2</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.35">
@@ -2145,7 +2151,7 @@
         <v>41698</v>
       </c>
       <c r="B214">
-        <v>-2.2802222316025189E-2</v>
+        <v>-8.6583929020134787E-3</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.35">
@@ -2153,7 +2159,7 @@
         <v>41729</v>
       </c>
       <c r="B215">
-        <v>-4.272847922645346E-2</v>
+        <v>-2.998509177884056E-2</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.35">
@@ -2161,7 +2167,7 @@
         <v>41759</v>
       </c>
       <c r="B216">
-        <v>-3.3565996520515451E-2</v>
+        <v>-2.2242847175583499E-2</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.35">
@@ -2169,7 +2175,7 @@
         <v>41789</v>
       </c>
       <c r="B217">
-        <v>0.1132518631983835</v>
+        <v>7.8299853336706388E-2</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.35">
@@ -2177,7 +2183,7 @@
         <v>41820</v>
       </c>
       <c r="B218">
-        <v>5.1268943155387492E-2</v>
+        <v>4.4846973547861407E-2</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.35">
@@ -2185,7 +2191,7 @@
         <v>41851</v>
       </c>
       <c r="B219">
-        <v>-4.7780233530099886E-3</v>
+        <v>-5.1237910864110336E-4</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.35">
@@ -2193,7 +2199,7 @@
         <v>41880</v>
       </c>
       <c r="B220">
-        <v>-7.9069933201330933E-2</v>
+        <v>-6.1120964343901699E-2</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.35">
@@ -2201,7 +2207,7 @@
         <v>41912</v>
       </c>
       <c r="B221">
-        <v>-8.5710492651504516E-2</v>
+        <v>-0.1169382717461087</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.35">
@@ -2209,7 +2215,7 @@
         <v>41943</v>
       </c>
       <c r="B222">
-        <v>1.416770226418543E-2</v>
+        <v>1.4738414736551519E-2</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.35">
@@ -2217,7 +2223,7 @@
         <v>41971</v>
       </c>
       <c r="B223">
-        <v>-1.406303296916077E-2</v>
+        <v>-1.559467975490071E-2</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.35">
@@ -2225,7 +2231,7 @@
         <v>42004</v>
       </c>
       <c r="B224">
-        <v>7.3817508638437251E-2</v>
+        <v>9.4145771542051865E-2</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.35">
@@ -2233,7 +2239,7 @@
         <v>42034</v>
       </c>
       <c r="B225">
-        <v>2.2559125373430969E-2</v>
+        <v>5.5919770171359073E-2</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.35">
@@ -2241,7 +2247,7 @@
         <v>42062</v>
       </c>
       <c r="B226">
-        <v>9.6400278673726442E-2</v>
+        <v>3.5093237952717272E-2</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.35">
@@ -2249,7 +2255,7 @@
         <v>42094</v>
       </c>
       <c r="B227">
-        <v>-0.13674274236499351</v>
+        <v>-7.3829912296042133E-2</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.35">
@@ -2257,7 +2263,7 @@
         <v>42124</v>
       </c>
       <c r="B228">
-        <v>1.4360782262435749E-2</v>
+        <v>3.287730598018708E-2</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.35">
@@ -2265,7 +2271,7 @@
         <v>42153</v>
       </c>
       <c r="B229">
-        <v>-1.457945607643615E-2</v>
+        <v>-5.8674639086446463E-3</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.35">
@@ -2273,7 +2279,7 @@
         <v>42185</v>
       </c>
       <c r="B230">
-        <v>-6.2949226248876444E-2</v>
+        <v>-3.3984599341613228E-2</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.35">
@@ -2281,7 +2287,7 @@
         <v>42216</v>
       </c>
       <c r="B231">
-        <v>-5.5379496211520876E-3</v>
+        <v>-5.5193936550111372E-2</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.35">
@@ -2289,7 +2295,7 @@
         <v>42247</v>
       </c>
       <c r="B232">
-        <v>1.768368458750947E-2</v>
+        <v>5.8044767796795099E-2</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.35">
@@ -2297,7 +2303,7 @@
         <v>42277</v>
       </c>
       <c r="B233">
-        <v>-5.9761655194149138E-2</v>
+        <v>-3.9889378625358352E-2</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.35">
@@ -2305,7 +2311,7 @@
         <v>42307</v>
       </c>
       <c r="B234">
-        <v>5.927092308566137E-2</v>
+        <v>2.0107511225809782E-3</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.35">
@@ -2313,7 +2319,7 @@
         <v>42338</v>
       </c>
       <c r="B235">
-        <v>-8.3195150625495928E-2</v>
+        <v>-1.518330145333119E-2</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.35">
@@ -2321,7 +2327,7 @@
         <v>42369</v>
       </c>
       <c r="B236">
-        <v>8.6714317014064679E-2</v>
+        <v>7.2598839989080621E-2</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.35">
@@ -2329,7 +2335,7 @@
         <v>42398</v>
       </c>
       <c r="B237">
-        <v>8.2152451796942971E-3</v>
+        <v>1.4032710803996149E-3</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.35">
@@ -2337,7 +2343,7 @@
         <v>42429</v>
       </c>
       <c r="B238">
-        <v>8.5781347107505956E-2</v>
+        <v>4.7306679606315287E-2</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.35">
@@ -2345,7 +2351,7 @@
         <v>42460</v>
       </c>
       <c r="B239">
-        <v>2.823978494915869E-2</v>
+        <v>6.3625130694639515E-2</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.35">
@@ -2353,7 +2359,7 @@
         <v>42489</v>
       </c>
       <c r="B240">
-        <v>0.13624490329482211</v>
+        <v>0.1653304110465004</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.35">
@@ -2361,7 +2367,7 @@
         <v>42521</v>
       </c>
       <c r="B241">
-        <v>-3.8115564731928502E-2</v>
+        <v>-5.1258895191845823E-2</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.35">
@@ -2369,7 +2375,7 @@
         <v>42551</v>
       </c>
       <c r="B242">
-        <v>4.3714105330188491E-2</v>
+        <v>4.8762687880710469E-2</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.35">
@@ -2377,7 +2383,7 @@
         <v>42580</v>
       </c>
       <c r="B243">
-        <v>-4.0054189107982072E-2</v>
+        <v>-9.7039616101732257E-2</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.35">
@@ -2385,7 +2391,7 @@
         <v>42613</v>
       </c>
       <c r="B244">
-        <v>4.5595736499501119E-2</v>
+        <v>7.6666943676635652E-2</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.35">
@@ -2393,7 +2399,7 @@
         <v>42643</v>
       </c>
       <c r="B245">
-        <v>-3.0601489168650079E-2</v>
+        <v>2.5211925172085391E-2</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.35">
@@ -2401,7 +2407,7 @@
         <v>42674</v>
       </c>
       <c r="B246">
-        <v>-2.3805514101173961E-2</v>
+        <v>-5.4176862342433317E-2</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.35">
@@ -2409,7 +2415,7 @@
         <v>42704</v>
       </c>
       <c r="B247">
-        <v>6.6657258196848285E-2</v>
+        <v>3.7447595457048337E-2</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.35">
@@ -2417,7 +2423,7 @@
         <v>42734</v>
       </c>
       <c r="B248">
-        <v>-4.7517563685598618E-2</v>
+        <v>-4.4489350090017379E-2</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.35">
@@ -2425,7 +2431,7 @@
         <v>42766</v>
       </c>
       <c r="B249">
-        <v>-7.4561439150044095E-2</v>
+        <v>-7.4022287966236333E-2</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.35">
@@ -2433,7 +2439,7 @@
         <v>42794</v>
       </c>
       <c r="B250">
-        <v>-8.6116703172367901E-2</v>
+        <v>-7.6596399246880498E-2</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.35">
@@ -2441,7 +2447,7 @@
         <v>42825</v>
       </c>
       <c r="B251">
-        <v>3.4645639588413699E-2</v>
+        <v>3.0601785315855851E-2</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.35">
@@ -2449,7 +2455,7 @@
         <v>42853</v>
       </c>
       <c r="B252">
-        <v>-0.14297597422424729</v>
+        <v>-0.1063883540721083</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.35">
@@ -2457,7 +2463,7 @@
         <v>42886</v>
       </c>
       <c r="B253">
-        <v>-1.75592210175478E-2</v>
+        <v>3.1759459303130211E-4</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.35">
@@ -2465,7 +2471,7 @@
         <v>42916</v>
       </c>
       <c r="B254">
-        <v>1.701653323731318E-2</v>
+        <v>4.8953100701314353E-3</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.35">
@@ -2473,7 +2479,7 @@
         <v>42947</v>
       </c>
       <c r="B255">
-        <v>3.1516573572055333E-2</v>
+        <v>2.306986788350486E-2</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.35">
@@ -2481,7 +2487,7 @@
         <v>42978</v>
       </c>
       <c r="B256">
-        <v>-0.25833144509679601</v>
+        <v>-0.1431952165947834</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.35">
@@ -2489,7 +2495,7 @@
         <v>43007</v>
       </c>
       <c r="B257">
-        <v>9.8973113016980752E-3</v>
+        <v>7.7171073382486771E-2</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.35">
@@ -2497,7 +2503,7 @@
         <v>43039</v>
       </c>
       <c r="B258">
-        <v>-5.4962814256393669E-2</v>
+        <v>-6.487737441829608E-2</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.35">
@@ -2505,7 +2511,7 @@
         <v>43069</v>
       </c>
       <c r="B259">
-        <v>-0.14863455978052789</v>
+        <v>-0.11622046126608621</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.35">
@@ -2513,7 +2519,7 @@
         <v>43098</v>
       </c>
       <c r="B260">
-        <v>-1.8329017437571041E-2</v>
+        <v>-1.113449711479891E-2</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.35">
@@ -2521,7 +2527,7 @@
         <v>43131</v>
       </c>
       <c r="B261">
-        <v>4.3045757811133623E-2</v>
+        <v>1.41105985926635E-2</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.35">
@@ -2529,7 +2535,7 @@
         <v>43159</v>
       </c>
       <c r="B262">
-        <v>-1.4197350328774561E-2</v>
+        <v>1.5444325624477079E-2</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.35">
@@ -2537,7 +2543,7 @@
         <v>43220</v>
       </c>
       <c r="B263">
-        <v>3.1480543012055641E-2</v>
+        <v>0.13443164306527239</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.35">
@@ -2545,7 +2551,7 @@
         <v>43251</v>
       </c>
       <c r="B264">
-        <v>4.077272259427811E-2</v>
+        <v>6.4207953355157998E-2</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.35">
@@ -2553,7 +2559,7 @@
         <v>43280</v>
       </c>
       <c r="B265">
-        <v>-7.0222835904636349E-2</v>
+        <v>-7.669018327206914E-2</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.35">
@@ -2561,7 +2567,7 @@
         <v>43312</v>
       </c>
       <c r="B266">
-        <v>-5.3977233072224698E-2</v>
+        <v>-9.2787033292650423E-2</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.35">
@@ -2569,7 +2575,7 @@
         <v>43343</v>
       </c>
       <c r="B267">
-        <v>1.990954059517908E-2</v>
+        <v>5.1781813853365347E-2</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.35">
@@ -2577,7 +2583,7 @@
         <v>43371</v>
       </c>
       <c r="B268">
-        <v>2.1660767352041539E-2</v>
+        <v>3.1304029835273132E-2</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.35">
@@ -2585,7 +2591,7 @@
         <v>43404</v>
       </c>
       <c r="B269">
-        <v>-0.1420757265629474</v>
+        <v>-0.10518482499050449</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.35">
@@ -2593,7 +2599,7 @@
         <v>43434</v>
       </c>
       <c r="B270">
-        <v>-8.8777007866211941E-3</v>
+        <v>-5.3841378254969118E-2</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.35">
@@ -2601,7 +2607,7 @@
         <v>43465</v>
       </c>
       <c r="B271">
-        <v>3.336112803218419E-2</v>
+        <v>6.6098632610395641E-2</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.35">
@@ -2609,7 +2615,7 @@
         <v>43496</v>
       </c>
       <c r="B272">
-        <v>0.20005302358613569</v>
+        <v>4.65936375575009E-2</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.35">
@@ -2617,7 +2623,7 @@
         <v>43524</v>
       </c>
       <c r="B273">
-        <v>3.4332250619023369E-2</v>
+        <v>5.301618720782085E-2</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.35">
@@ -2625,7 +2631,7 @@
         <v>43553</v>
       </c>
       <c r="B274">
-        <v>-7.0630138625414701E-2</v>
+        <v>-6.3153690524095807E-2</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.35">
@@ -2633,7 +2639,7 @@
         <v>43585</v>
       </c>
       <c r="B275">
-        <v>5.4735667635493007E-2</v>
+        <v>3.8804994458148813E-2</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.35">
@@ -2641,7 +2647,7 @@
         <v>43616</v>
       </c>
       <c r="B276">
-        <v>6.1245478902841044E-4</v>
+        <v>-9.9763008395149511E-3</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.35">
@@ -2649,7 +2655,7 @@
         <v>43644</v>
       </c>
       <c r="B277">
-        <v>0.14020117750369099</v>
+        <v>0.10375920585153151</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.35">
@@ -2657,7 +2663,7 @@
         <v>43677</v>
       </c>
       <c r="B278">
-        <v>0.21462591493310709</v>
+        <v>0.20743140193086901</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.35">
@@ -2665,7 +2671,7 @@
         <v>43707</v>
       </c>
       <c r="B279">
-        <v>-0.1049650457226262</v>
+        <v>-6.6534709428782979E-2</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.35">
@@ -2673,7 +2679,7 @@
         <v>43738</v>
       </c>
       <c r="B280">
-        <v>9.8515918192397134E-2</v>
+        <v>0.1126790806000577</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.35">
@@ -2681,7 +2687,7 @@
         <v>43769</v>
       </c>
       <c r="B281">
-        <v>4.9257609999421942E-2</v>
+        <v>5.8296833446080228E-2</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.35">
@@ -2689,7 +2695,7 @@
         <v>43798</v>
       </c>
       <c r="B282">
-        <v>3.6549551593694177E-2</v>
+        <v>-3.7788522383229578E-3</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.35">
@@ -2697,7 +2703,7 @@
         <v>43830</v>
       </c>
       <c r="B283">
-        <v>8.5192869727119286E-2</v>
+        <v>0.1097716675200766</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.35">
@@ -2705,7 +2711,7 @@
         <v>43861</v>
       </c>
       <c r="B284">
-        <v>-3.4215408137289849E-2</v>
+        <v>3.6113200420148761E-2</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.35">
@@ -2713,7 +2719,7 @@
         <v>43889</v>
       </c>
       <c r="B285">
-        <v>8.0919189436890554E-2</v>
+        <v>0.12510121272785871</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.35">
@@ -2721,7 +2727,7 @@
         <v>43921</v>
       </c>
       <c r="B286">
-        <v>1.520238155755989E-2</v>
+        <v>-1.548293372118488E-2</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.35">
@@ -2729,7 +2735,7 @@
         <v>43951</v>
       </c>
       <c r="B287">
-        <v>-6.4615464356293451E-2</v>
+        <v>-2.215395311665069E-2</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.35">
@@ -2737,7 +2743,7 @@
         <v>43980</v>
       </c>
       <c r="B288">
-        <v>8.5384270098333714E-2</v>
+        <v>0.108375533304002</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.35">
@@ -2745,7 +2751,7 @@
         <v>44012</v>
       </c>
       <c r="B289">
-        <v>1.2302712365566491E-2</v>
+        <v>3.4182116226800591E-2</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.35">
@@ -2753,7 +2759,7 @@
         <v>44043</v>
       </c>
       <c r="B290">
-        <v>6.3260669059247793E-2</v>
+        <v>4.3526145227090848E-2</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.35">
@@ -2761,7 +2767,7 @@
         <v>44074</v>
       </c>
       <c r="B291">
-        <v>-5.1953558507528107E-2</v>
+        <v>-5.7638294276755292E-2</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.35">
@@ -2769,7 +2775,7 @@
         <v>44104</v>
       </c>
       <c r="B292">
-        <v>-1.8172259680837129E-2</v>
+        <v>5.4854159695890553E-3</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.35">
@@ -2777,7 +2783,7 @@
         <v>44134</v>
       </c>
       <c r="B293">
-        <v>1.53884126092881E-2</v>
+        <v>6.7810282622383505E-2</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.35">
@@ -2785,7 +2791,7 @@
         <v>44165</v>
       </c>
       <c r="B294">
-        <v>0.1037053606888885</v>
+        <v>0.15892530266653179</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.35">
@@ -2793,7 +2799,95 @@
         <v>44196</v>
       </c>
       <c r="B295">
-        <v>5.5765014525356267E-2</v>
+        <v>5.686087972082568E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A296" s="2">
+        <v>44225</v>
+      </c>
+      <c r="B296">
+        <v>0.1104912193915427</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A297" s="2">
+        <v>44253</v>
+      </c>
+      <c r="B297">
+        <v>-4.1247491103856851E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A298" s="2">
+        <v>44286</v>
+      </c>
+      <c r="B298">
+        <v>-8.0365656982450656E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A299" s="2">
+        <v>44316</v>
+      </c>
+      <c r="B299">
+        <v>-6.2353390170553809E-2</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A300" s="2">
+        <v>44377</v>
+      </c>
+      <c r="B300">
+        <v>8.0869673235928238E-2</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A301" s="2">
+        <v>44407</v>
+      </c>
+      <c r="B301">
+        <v>-0.118248773368691</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A302" s="2">
+        <v>44439</v>
+      </c>
+      <c r="B302">
+        <v>-6.0527991046699467E-2</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A303" s="2">
+        <v>44469</v>
+      </c>
+      <c r="B303">
+        <v>7.6138686709157882E-2</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A304" s="2">
+        <v>44498</v>
+      </c>
+      <c r="B304">
+        <v>-0.1466456862174168</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A305" s="2">
+        <v>44530</v>
+      </c>
+      <c r="B305">
+        <v>2.9979767440608939E-2</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A306" s="2">
+        <v>44561</v>
+      </c>
+      <c r="B306">
+        <v>-7.1669488047654009E-2</v>
       </c>
     </row>
   </sheetData>
